--- a/Entregables/Cristhian/PrimerPago/Plan de Trabajo Cristhian.xlsx
+++ b/Entregables/Cristhian/PrimerPago/Plan de Trabajo Cristhian.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\oim\Entregables\Cristhian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\oim\Entregables\Cristhian\PrimerPago\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="14310"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="14310"/>
   </bookViews>
   <sheets>
     <sheet name="PLAN DE TRABAJO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PLAN DE TRABAJO'!$A$1:$O$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PLAN DE TRABAJO'!$A$1:$O$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PLAN DE TRABAJO'!$A$1:$O$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'PLAN DE TRABAJO'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Producto</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>1 al 2</t>
-  </si>
-  <si>
-    <t>Documento</t>
   </si>
   <si>
     <t>Plan de Trabajo</t>
@@ -135,21 +132,9 @@
     <t>Documento evidencia de los accesos</t>
   </si>
   <si>
-    <t>Elaborar documento de Especificación de requerimientos</t>
-  </si>
-  <si>
-    <t>Mockups</t>
-  </si>
-  <si>
-    <t>Documento y Mockups</t>
-  </si>
-  <si>
     <t>Reuniones con los usuarios funcionales del requerimiento</t>
   </si>
   <si>
-    <t>Actas de asistencia</t>
-  </si>
-  <si>
     <t>Acta de aceptación</t>
   </si>
   <si>
@@ -160,12 +145,6 @@
   </si>
   <si>
     <t>Envió de correo electrónico con el plan de trabajo y los documentos de análisis y planeación</t>
-  </si>
-  <si>
-    <t>Código fuente</t>
-  </si>
-  <si>
-    <t>Elaborar documentación solicitada</t>
   </si>
   <si>
     <t>Participar en reuniones técnicas con el equipo de control y seguimiento y funcionales encargados de la Dirección de reparación</t>
@@ -200,6 +179,56 @@
   <si>
     <t>Desarrollo en Maariv de:
 - FICHA DE DOCUMENTO DE FORMULACIÓN PLAN ELABORADA POR EL SISTEMA</t>
+  </si>
+  <si>
+    <t>Elaborar documento de Especificación de requerimientos HERRAMIENTAS PARA LA FORMULACIÓN DEL PLAN DE RETORNO Y REUBICACIÓN</t>
+  </si>
+  <si>
+    <t>Elaborar documento de Especificación de requerimientos FICHA DE CARACTERIZACIÓN DE LA COMUNIDAD</t>
+  </si>
+  <si>
+    <t>Documento de Especificación de requerimientos Ficha de Caracterización</t>
+  </si>
+  <si>
+    <t>Especificación de requerimientos Plan de Retorno y Reubicacion</t>
+  </si>
+  <si>
+    <t>Mockups Ficha de Caracterización</t>
+  </si>
+  <si>
+    <t>Mockups Plan de Retorno y Reubicacion</t>
+  </si>
+  <si>
+    <t>Envio correo con todos los soporte</t>
+  </si>
+  <si>
+    <t>Elaborar documentación solicitada
+- Manual de usuario
+- Manual de administración
+- Diagrama de Clases
+- Diagrama de componentes
+- Documentación que se acuerde con el grupo de retornos y reubicaciones sobre el diseño, ajuste y/o actualización de la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborado por: </t>
+  </si>
+  <si>
+    <t>Cristhian Alberto Navarrete Ruiz</t>
+  </si>
+  <si>
+    <t>Contratista</t>
+  </si>
+  <si>
+    <t>Septiembre de 2020</t>
+  </si>
+  <si>
+    <t>Soporte de asistencia</t>
+  </si>
+  <si>
+    <t>Informe de avance</t>
+  </si>
+  <si>
+    <t>Código fuente y Acta de Aceptación</t>
   </si>
 </sst>
 </file>
@@ -249,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -386,11 +415,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -431,10 +471,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,6 +486,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,6 +509,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,6 +531,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2402417</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1058333</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="9086590"/>
+          <a:ext cx="1852083" cy="745325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -783,12 +881,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -807,110 +906,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>1</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>23</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
@@ -924,14 +1023,14 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
@@ -945,16 +1044,16 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16" t="s">
-        <v>24</v>
+    <row r="6" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="6"/>
@@ -968,14 +1067,14 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
+      <c r="D7" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="6"/>
@@ -989,41 +1088,33 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>36</v>
+    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="6"/>
@@ -1037,85 +1128,85 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
@@ -1123,43 +1214,47 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17"/>
+      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
@@ -1169,52 +1264,118 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="28" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F2:J2"/>
+  <mergeCells count="16">
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A4:A10"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.74803149606299213"/>
-  <pageSetup scale="58" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="50" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>